--- a/data/trans_orig/P57_R2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P57_R2-Habitat-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>200433</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>176258</v>
+        <v>177897</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>225296</v>
+        <v>226378</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2993807700368957</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2632704140548539</v>
+        <v>0.2657194756362243</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3365173745784673</v>
+        <v>0.3381329541005132</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>181</v>
@@ -763,19 +763,19 @@
         <v>176124</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>154949</v>
+        <v>155045</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>197307</v>
+        <v>198842</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2638986981301515</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2321699897069217</v>
+        <v>0.2323145291972018</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.295637565919346</v>
+        <v>0.2979384588071021</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>373</v>
@@ -784,19 +784,19 @@
         <v>376558</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>343283</v>
+        <v>344867</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>410591</v>
+        <v>411869</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2816675783611919</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2567782210477846</v>
+        <v>0.2579623734875316</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3071249585119099</v>
+        <v>0.3080808024271414</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>469060</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>444197</v>
+        <v>443115</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>493235</v>
+        <v>491596</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7006192299631043</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6634826254215329</v>
+        <v>0.6618670458994868</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7367295859451463</v>
+        <v>0.7342805243637757</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>480</v>
@@ -834,19 +834,19 @@
         <v>491270</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>470087</v>
+        <v>468552</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>512445</v>
+        <v>512349</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7361013018698485</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.704362434080654</v>
+        <v>0.7020615411928978</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7678300102930783</v>
+        <v>0.7676854708027981</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>935</v>
@@ -855,19 +855,19 @@
         <v>960329</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>926296</v>
+        <v>925018</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>993604</v>
+        <v>992020</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7183324216388082</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6928750414880901</v>
+        <v>0.6919191975728585</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7432217789522155</v>
+        <v>0.7420376265124684</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>300008</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>273244</v>
+        <v>269382</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>328979</v>
+        <v>329009</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2937422718008447</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2675378642074944</v>
+        <v>0.2637562116889592</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3221084412903275</v>
+        <v>0.3221379891233099</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>262</v>
@@ -980,19 +980,19 @@
         <v>274699</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>246402</v>
+        <v>247031</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>305609</v>
+        <v>305501</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2636429636005003</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2364845987278509</v>
+        <v>0.2370887534366625</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2933084321818077</v>
+        <v>0.2932046980859132</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>539</v>
@@ -1001,19 +1001,19 @@
         <v>574707</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>535039</v>
+        <v>530935</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>619188</v>
+        <v>616674</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2785423015935071</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2593168310386178</v>
+        <v>0.2573277826005895</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3001010834754713</v>
+        <v>0.2988824582877165</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>721321</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>692350</v>
+        <v>692320</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>748085</v>
+        <v>751947</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7062577281991552</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6778915587096724</v>
+        <v>0.6778620108766896</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7324621357925056</v>
+        <v>0.7362437883110408</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>714</v>
@@ -1051,19 +1051,19 @@
         <v>767237</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>736327</v>
+        <v>736435</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>795534</v>
+        <v>794905</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7363570363994998</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7066915678181923</v>
+        <v>0.7067953019140869</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7635154012721488</v>
+        <v>0.7629112465633376</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1387</v>
@@ -1072,19 +1072,19 @@
         <v>1488558</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1444077</v>
+        <v>1446591</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1528226</v>
+        <v>1532330</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7214576984064929</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6998989165245287</v>
+        <v>0.7011175417122835</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.740683168961382</v>
+        <v>0.7426722173994103</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>227876</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>202985</v>
+        <v>203999</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>256506</v>
+        <v>254983</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3012481834040423</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2683432356505769</v>
+        <v>0.2696834937129663</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3390961614471076</v>
+        <v>0.3370837034829954</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>191</v>
@@ -1197,19 +1197,19 @@
         <v>198207</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>175078</v>
+        <v>173571</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>226470</v>
+        <v>222434</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2543387999831208</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2246589253897001</v>
+        <v>0.2227260081478556</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2906051805711803</v>
+        <v>0.285425640682756</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>400</v>
@@ -1218,19 +1218,19 @@
         <v>426083</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>390593</v>
+        <v>392485</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>461119</v>
+        <v>461136</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.277444262638334</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.254334763743217</v>
+        <v>0.2555665766387615</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3002577843254781</v>
+        <v>0.3002684973294952</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>528563</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>499933</v>
+        <v>501456</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>553454</v>
+        <v>552440</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6987518165959576</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6609038385528925</v>
+        <v>0.6629162965170048</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7316567643494233</v>
+        <v>0.7303165062870337</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>540</v>
@@ -1268,19 +1268,19 @@
         <v>581098</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>552835</v>
+        <v>556871</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>604227</v>
+        <v>605734</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7456612000168793</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7093948194288199</v>
+        <v>0.714574359317244</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7753410746103001</v>
+        <v>0.7772739918521444</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1024</v>
@@ -1289,19 +1289,19 @@
         <v>1109661</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1074625</v>
+        <v>1074608</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1145151</v>
+        <v>1143259</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.722555737361666</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6997422156745219</v>
+        <v>0.6997315026705048</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.745665236256783</v>
+        <v>0.7444334233612385</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>297880</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>269887</v>
+        <v>272235</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>326267</v>
+        <v>329673</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3191094556665943</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2891208941574799</v>
+        <v>0.2916366004484695</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3495197634661797</v>
+        <v>0.3531680452758619</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>263</v>
@@ -1414,19 +1414,19 @@
         <v>279691</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>251380</v>
+        <v>247734</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>310003</v>
+        <v>308977</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2690715783527832</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2418358860306207</v>
+        <v>0.238327754501499</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2982329522870522</v>
+        <v>0.297245624060661</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>555</v>
@@ -1435,19 +1435,19 @@
         <v>577571</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>536861</v>
+        <v>538316</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>621124</v>
+        <v>621037</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2927463988963927</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2721123541024919</v>
+        <v>0.2728497051898869</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3148213353807459</v>
+        <v>0.3147776240715236</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>635593</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>607206</v>
+        <v>603800</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>663586</v>
+        <v>661238</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6808905443334057</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6504802365338201</v>
+        <v>0.6468319547241385</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7108791058425199</v>
+        <v>0.7083633995515306</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>692</v>
@@ -1485,19 +1485,19 @@
         <v>759776</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>729464</v>
+        <v>730490</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>788087</v>
+        <v>791733</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7309284216472167</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7017670477129478</v>
+        <v>0.702754375939339</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7581641139693793</v>
+        <v>0.7616722454985011</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1328</v>
@@ -1506,19 +1506,19 @@
         <v>1395369</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1351816</v>
+        <v>1351903</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1436079</v>
+        <v>1434624</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7072536011036072</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.685178664619254</v>
+        <v>0.6852223759284765</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7278876458975082</v>
+        <v>0.7271502948101131</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>1026196</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>976655</v>
+        <v>973015</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1083913</v>
+        <v>1080247</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.303542595721792</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2888884188953999</v>
+        <v>0.2878117499622123</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3206149164345699</v>
+        <v>0.3195302868229622</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>897</v>
@@ -1631,19 +1631,19 @@
         <v>928723</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>875391</v>
+        <v>876296</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>982733</v>
+        <v>985952</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2632355943658629</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2481194828648475</v>
+        <v>0.2483757961060622</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2785441665670674</v>
+        <v>0.2794565142534241</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1867</v>
@@ -1652,19 +1652,19 @@
         <v>1954919</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1882999</v>
+        <v>1874566</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2031845</v>
+        <v>2030836</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2829592062810851</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2725492784698017</v>
+        <v>0.2713287601490773</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2940936043540789</v>
+        <v>0.2939475263534146</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>2354537</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2296820</v>
+        <v>2300486</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2404078</v>
+        <v>2407718</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.696457404278208</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6793850835654301</v>
+        <v>0.6804697131770379</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7111115811046</v>
+        <v>0.7121882500377877</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2426</v>
@@ -1702,19 +1702,19 @@
         <v>2599381</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2545371</v>
+        <v>2542152</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2652713</v>
+        <v>2651808</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.736764405634137</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7214558334329325</v>
+        <v>0.7205434857465759</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7518805171351525</v>
+        <v>0.7516242038939378</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4674</v>
@@ -1723,19 +1723,19 @@
         <v>4953918</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4876992</v>
+        <v>4878001</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5025838</v>
+        <v>5034271</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7170407937189149</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7059063956459209</v>
+        <v>0.7060524736465854</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.727450721530198</v>
+        <v>0.7286712398509231</v>
       </c>
     </row>
     <row r="18">
@@ -2067,19 +2067,19 @@
         <v>287114</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>257447</v>
+        <v>256817</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>313044</v>
+        <v>313698</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.4201774832370219</v>
+        <v>0.4201774832370218</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3767612124541019</v>
+        <v>0.3758391146884353</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4581246139011531</v>
+        <v>0.4590817032023868</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>435</v>
@@ -2088,19 +2088,19 @@
         <v>290667</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>268879</v>
+        <v>270173</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>313647</v>
+        <v>316588</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.3999029068673773</v>
+        <v>0.3999029068673772</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3699273688968285</v>
+        <v>0.3717079937080852</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4315192457665284</v>
+        <v>0.4355657454773062</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>709</v>
@@ -2109,19 +2109,19 @@
         <v>577781</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>543282</v>
+        <v>538835</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>615618</v>
+        <v>610841</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4097272977212577</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3852629704591137</v>
+        <v>0.3821096626686564</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4365590655240378</v>
+        <v>0.4331717705943727</v>
       </c>
     </row>
     <row r="5">
@@ -2138,19 +2138,19 @@
         <v>396203</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>370273</v>
+        <v>369619</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>425870</v>
+        <v>426500</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.5798225167629782</v>
+        <v>0.5798225167629781</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5418753860988469</v>
+        <v>0.5409182967976131</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.623238787545898</v>
+        <v>0.6241608853115644</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>790</v>
@@ -2159,19 +2159,19 @@
         <v>436176</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>413196</v>
+        <v>410255</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>457964</v>
+        <v>456670</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6000970931326226</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5684807542334713</v>
+        <v>0.5644342545226938</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6300726311031715</v>
+        <v>0.628292006291915</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1237</v>
@@ -2180,19 +2180,19 @@
         <v>832378</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>794541</v>
+        <v>799318</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>866877</v>
+        <v>871324</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5902727022787423</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5634409344759621</v>
+        <v>0.5668282294056274</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6147370295408862</v>
+        <v>0.6178903373313434</v>
       </c>
     </row>
     <row r="6">
@@ -2284,19 +2284,19 @@
         <v>513180</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>475762</v>
+        <v>475947</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>551984</v>
+        <v>551097</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.4899392201377483</v>
+        <v>0.4899392201377484</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4542154010655266</v>
+        <v>0.45439236472523</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5269854634538661</v>
+        <v>0.5261385672282821</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>575</v>
@@ -2305,19 +2305,19 @@
         <v>442968</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>416685</v>
+        <v>414996</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>471440</v>
+        <v>473990</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.4166958140470044</v>
+        <v>0.4166958140470043</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3919717791808568</v>
+        <v>0.3903827545293713</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4434791235855937</v>
+        <v>0.4458780577745595</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1010</v>
@@ -2326,19 +2326,19 @@
         <v>956149</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>907674</v>
+        <v>906508</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1001991</v>
+        <v>1005415</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.4530466342560076</v>
+        <v>0.4530466342560075</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4300784110794468</v>
+        <v>0.4295257499288105</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4747679701620433</v>
+        <v>0.4763901294590834</v>
       </c>
     </row>
     <row r="8">
@@ -2355,19 +2355,19 @@
         <v>534257</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>495453</v>
+        <v>496340</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>571675</v>
+        <v>571490</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.5100607798622515</v>
+        <v>0.5100607798622516</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4730145365461341</v>
+        <v>0.4738614327717179</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5457845989344733</v>
+        <v>0.5456076352747701</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>928</v>
@@ -2376,19 +2376,19 @@
         <v>620080</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>591608</v>
+        <v>589058</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>646363</v>
+        <v>648052</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5833041859529957</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5565208764144065</v>
+        <v>0.5541219422254406</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6080282208191431</v>
+        <v>0.6096172454706287</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1456</v>
@@ -2397,19 +2397,19 @@
         <v>1154337</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1108495</v>
+        <v>1105071</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1202812</v>
+        <v>1203978</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.5469533657439926</v>
+        <v>0.5469533657439924</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5252320298379564</v>
+        <v>0.5236098705409168</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5699215889205532</v>
+        <v>0.5704742500711893</v>
       </c>
     </row>
     <row r="9">
@@ -2501,19 +2501,19 @@
         <v>429625</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>399126</v>
+        <v>394474</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>462446</v>
+        <v>460983</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5349756792401896</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.49699819677116</v>
+        <v>0.4912053339804531</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5758454510078534</v>
+        <v>0.5740234844357047</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>486</v>
@@ -2522,19 +2522,19 @@
         <v>395424</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>371380</v>
+        <v>368247</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>424874</v>
+        <v>422574</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4893462775449587</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4595920811877132</v>
+        <v>0.4557151928816801</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5257914676970052</v>
+        <v>0.522945164695274</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>822</v>
@@ -2543,19 +2543,19 @@
         <v>825048</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>783791</v>
+        <v>784792</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>867872</v>
+        <v>871094</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5120902864949605</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4864829237508139</v>
+        <v>0.4871042775167551</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5386699052023578</v>
+        <v>0.5406699584224937</v>
       </c>
     </row>
     <row r="11">
@@ -2572,19 +2572,19 @@
         <v>373448</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>340627</v>
+        <v>342090</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>403947</v>
+        <v>408599</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.4650243207598105</v>
+        <v>0.4650243207598104</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4241545489921466</v>
+        <v>0.4259765155642953</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.50300180322884</v>
+        <v>0.5087946660195466</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>555</v>
@@ -2593,19 +2593,19 @@
         <v>412641</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>383191</v>
+        <v>385491</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>436685</v>
+        <v>439818</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5106537224550413</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4742085323029939</v>
+        <v>0.4770548353047257</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5404079188122866</v>
+        <v>0.5442848071183197</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>895</v>
@@ -2614,19 +2614,19 @@
         <v>786090</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>743266</v>
+        <v>740044</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>827347</v>
+        <v>826346</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.4879097135050395</v>
+        <v>0.4879097135050396</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4613300947976423</v>
+        <v>0.4593300415775063</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5135170762491862</v>
+        <v>0.5128957224832449</v>
       </c>
     </row>
     <row r="12">
@@ -2718,19 +2718,19 @@
         <v>404465</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>373528</v>
+        <v>370750</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>438743</v>
+        <v>438191</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.4093915130239134</v>
+        <v>0.4093915130239132</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.378077418441601</v>
+        <v>0.3752661325630257</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4440874686801676</v>
+        <v>0.4435279992554502</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>520</v>
@@ -2739,19 +2739,19 @@
         <v>402018</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>372257</v>
+        <v>373877</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>431910</v>
+        <v>436204</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3606311677110375</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3339339266848746</v>
+        <v>0.33538686420064</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3874462417072845</v>
+        <v>0.3912974532699477</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>895</v>
@@ -2760,19 +2760,19 @@
         <v>806483</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>768624</v>
+        <v>759919</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>849698</v>
+        <v>849241</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3835411982431779</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3655367890959381</v>
+        <v>0.3613966994355138</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4040933724724775</v>
+        <v>0.4038756782721897</v>
       </c>
     </row>
     <row r="14">
@@ -2789,19 +2789,19 @@
         <v>583501</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>549223</v>
+        <v>549775</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>614438</v>
+        <v>617216</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.5906084869760866</v>
+        <v>0.5906084869760868</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5559125313198324</v>
+        <v>0.5564720007445498</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.621922581558399</v>
+        <v>0.6247338674369743</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1035</v>
@@ -2810,19 +2810,19 @@
         <v>712744</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>682852</v>
+        <v>678558</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>742505</v>
+        <v>740885</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.6393688322889625</v>
+        <v>0.6393688322889624</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6125537582927157</v>
+        <v>0.6087025467300524</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6660660733151256</v>
+        <v>0.6646131357993601</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1663</v>
@@ -2831,19 +2831,19 @@
         <v>1296245</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1253030</v>
+        <v>1253487</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1334104</v>
+        <v>1342809</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6164588017568221</v>
+        <v>0.616458801756822</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5959066275275223</v>
+        <v>0.5961243217278103</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6344632109040617</v>
+        <v>0.6386033005644862</v>
       </c>
     </row>
     <row r="15">
@@ -2935,19 +2935,19 @@
         <v>1634384</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1565321</v>
+        <v>1570377</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1698416</v>
+        <v>1702816</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.4640773379305981</v>
+        <v>0.464077337930598</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4444671139199283</v>
+        <v>0.4459027282837472</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4822589675119416</v>
+        <v>0.483508347757528</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2016</v>
@@ -2956,19 +2956,19 @@
         <v>1531076</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1476236</v>
+        <v>1473929</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1583794</v>
+        <v>1585657</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4123867769258656</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.397616091021017</v>
+        <v>0.3969946208803338</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4265860052070894</v>
+        <v>0.4270878362871848</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3436</v>
@@ -2977,19 +2977,19 @@
         <v>3165460</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3086064</v>
+        <v>3082342</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3258499</v>
+        <v>3249155</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4375499783483682</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4265753071111628</v>
+        <v>0.4260608159330918</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4504103609900552</v>
+        <v>0.4491188203396612</v>
       </c>
     </row>
     <row r="17">
@@ -3006,19 +3006,19 @@
         <v>1887409</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1823377</v>
+        <v>1818977</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1956472</v>
+        <v>1951416</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5359226620694019</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5177410324880587</v>
+        <v>0.5164916522424718</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5555328860800719</v>
+        <v>0.5540972717162526</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3308</v>
@@ -3027,19 +3027,19 @@
         <v>2181642</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2128924</v>
+        <v>2127061</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2236482</v>
+        <v>2238789</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.5876132230741343</v>
+        <v>0.5876132230741344</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5734139947929109</v>
+        <v>0.5729121637128151</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6023839089789834</v>
+        <v>0.6030053791196661</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5251</v>
@@ -3048,19 +3048,19 @@
         <v>4069051</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3976012</v>
+        <v>3985356</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4148447</v>
+        <v>4152169</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.5624500216516318</v>
+        <v>0.5624500216516319</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5495896390099447</v>
+        <v>0.5508811796603389</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5734246928888374</v>
+        <v>0.5739391840669082</v>
       </c>
     </row>
     <row r="18">
